--- a/file.xlsx
+++ b/file.xlsx
@@ -131,7 +131,7 @@
     <t>Surface Bismuthinite</t>
   </si>
   <si>
-    <t>Bismuth (90) (TFC)</t>
+    <t>Bismuth (90)</t>
   </si>
   <si>
     <t>Sulfur (3)</t>
@@ -467,7 +467,7 @@
     <t>Normal Redstone</t>
   </si>
   <si>
-    <t>Restone (45)</t>
+    <t>Redstone (45)</t>
   </si>
   <si>
     <t>Ruby (35)</t>
@@ -548,7 +548,7 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>Shale, Claystone, Sylvite</t>
+    <t>Shale, Claystone</t>
   </si>
   <si>
     <t>Normal Beryllium</t>
@@ -656,7 +656,7 @@
     <t>Apatite (50)</t>
   </si>
   <si>
-    <t>TricalciumPhospate (35)</t>
+    <t>TricalciumPhosphate (35)</t>
   </si>
   <si>
     <t>Pyrochlore (15)</t>
@@ -689,7 +689,7 @@
     <t>GlauconiteSand (25)</t>
   </si>
   <si>
-    <t>Pentlandtite (15)</t>
+    <t>Pentlandite (15)</t>
   </si>
   <si>
     <t>Normal Mica</t>
@@ -755,7 +755,7 @@
     <t>Magnetite (5)</t>
   </si>
   <si>
-    <t>VanadiumMagnetiite (15)</t>
+    <t>VanadiumMagnetite (15)</t>
   </si>
   <si>
     <t>Chromite (60)</t>
@@ -782,10 +782,10 @@
     <t>Deep Garnet Amethyst</t>
   </si>
   <si>
-    <t>GarnetRed (5)</t>
-  </si>
-  <si>
-    <t>GarnetYellow (15)</t>
+    <t>RedGarnet (5)</t>
+  </si>
+  <si>
+    <t>YellowGarnet (15)</t>
   </si>
   <si>
     <t>Amethyst (65)</t>
@@ -821,7 +821,7 @@
     <t>Bornite (35)</t>
   </si>
   <si>
-    <t>Coopirite (25)</t>
+    <t>Cooperite (25)</t>
   </si>
   <si>
     <t>Platinum (25)</t>
@@ -860,7 +860,7 @@
     <t>Bornite (15)</t>
   </si>
   <si>
-    <t>Deep Molybdenium</t>
+    <t>Deep Molybdenum</t>
   </si>
   <si>
     <t>Wulfenite (40)</t>
@@ -869,7 +869,7 @@
     <t>Molybdenite (30)</t>
   </si>
   <si>
-    <t>Molybdenium (15)</t>
+    <t>Molybdenum (15)</t>
   </si>
   <si>
     <t>Powellite (15)</t>
@@ -881,7 +881,7 @@
     <t>Naquadah (75)</t>
   </si>
   <si>
-    <t>Plutonium239 (25)</t>
+    <t>Plutonium (25)</t>
   </si>
   <si>
     <t>Deep Pitchblende</t>

--- a/file.xlsx
+++ b/file.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="296">
   <si>
     <t>Vein Name</t>
   </si>
@@ -143,7 +143,7 @@
     <t>0.25</t>
   </si>
   <si>
-    <t>copper</t>
+    <t>native_copper</t>
   </si>
   <si>
     <t>tfc:cluster_vein</t>
@@ -272,7 +272,7 @@
     <t>0.4</t>
   </si>
   <si>
-    <t>bismuth</t>
+    <t>bismuthinite</t>
   </si>
   <si>
     <t>Gneiss</t>
@@ -407,7 +407,10 @@
     <t>Gold (55)</t>
   </si>
   <si>
-    <t>gold</t>
+    <t>native_gold</t>
+  </si>
+  <si>
+    <t>tfc:disc_vein</t>
   </si>
   <si>
     <t>Normal Silver</t>
@@ -422,7 +425,7 @@
     <t>Lead (55)</t>
   </si>
   <si>
-    <t>silver</t>
+    <t>native_silver</t>
   </si>
   <si>
     <t>Granite, Gneiss</t>
@@ -489,6 +492,9 @@
   </si>
   <si>
     <t>0.35</t>
+  </si>
+  <si>
+    <t>tfc:pipe_vein</t>
   </si>
   <si>
     <t>Normal Lapis</t>
@@ -1543,9 +1549,10 @@
     <col customWidth="1" min="2" max="6" width="20.63"/>
     <col customWidth="1" min="7" max="8" width="6.63"/>
     <col customWidth="1" min="9" max="11" width="7.13"/>
-    <col customWidth="1" min="12" max="12" width="8.63"/>
-    <col customWidth="1" min="13" max="14" width="13.0"/>
-    <col customWidth="1" min="15" max="16" width="7.5"/>
+    <col customWidth="1" min="12" max="12" width="11.38"/>
+    <col customWidth="1" min="13" max="14" width="8.25"/>
+    <col customWidth="1" min="15" max="15" width="7.38"/>
+    <col customWidth="1" min="16" max="16" width="7.5"/>
     <col customWidth="1" min="17" max="23" width="5.75"/>
     <col customWidth="1" min="24" max="24" width="11.38"/>
     <col customWidth="1" min="25" max="26" width="6.88"/>
@@ -2809,13 +2816,15 @@
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
+      <c r="V15" s="16">
+        <v>12.0</v>
+      </c>
       <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
       <c r="AA15" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB15" s="28" t="s">
         <v>45</v>
@@ -2841,16 +2850,16 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
@@ -2870,7 +2879,7 @@
         <v>60.0</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M16" s="16">
         <v>12.0</v>
@@ -2902,7 +2911,7 @@
       <c r="AD16" s="41"/>
       <c r="AE16" s="41"/>
       <c r="AF16" s="42" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG16" s="22" t="s">
         <v>46</v>
@@ -2919,16 +2928,16 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
@@ -2948,7 +2957,7 @@
         <v>70.0</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M17" s="16">
         <v>12.0</v>
@@ -2998,16 +3007,16 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
@@ -3027,7 +3036,7 @@
         <v>70.0</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M18" s="16">
         <v>12.0</v>
@@ -3076,10 +3085,10 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C19" s="16"/>
       <c r="D19" s="16"/>
@@ -3092,7 +3101,7 @@
         <v>210.0</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J19" s="16">
         <v>60.0</v>
@@ -3140,16 +3149,16 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
@@ -3208,16 +3217,16 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="16"/>
@@ -3228,11 +3237,9 @@
         <v>100.0</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J21" s="16">
-        <v>60.0</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J21" s="16"/>
       <c r="K21" s="16">
         <v>75.0</v>
       </c>
@@ -3241,18 +3248,32 @@
       <c r="N21" s="16"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="16"/>
-      <c r="T21" s="16"/>
-      <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="Q21" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="R21" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="T21" s="16">
+        <v>5.0</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>60.0</v>
+      </c>
+      <c r="W21" s="16">
+        <v>12.0</v>
+      </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
       <c r="AA21" s="16" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AB21" s="40"/>
       <c r="AC21" s="41"/>
@@ -3276,19 +3297,19 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16">
@@ -3346,19 +3367,19 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" s="17" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16">
@@ -3386,20 +3407,22 @@
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
+      <c r="V23" s="16">
+        <v>4.0</v>
+      </c>
       <c r="W23" s="16"/>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
       <c r="AA23" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB23" s="25"/>
       <c r="AC23" s="20"/>
       <c r="AD23" s="20"/>
       <c r="AE23" s="20"/>
       <c r="AF23" s="42" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="AG23" s="22" t="s">
         <v>46</v>
@@ -3416,16 +3439,16 @@
     </row>
     <row r="24">
       <c r="A24" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="16"/>
@@ -3436,7 +3459,7 @@
         <v>210.0</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J24" s="16">
         <v>45.0</v>
@@ -3481,10 +3504,10 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C25" s="16"/>
       <c r="D25" s="16"/>
@@ -3497,7 +3520,7 @@
         <v>100.0</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J25" s="16">
         <v>26.0</v>
@@ -3526,7 +3549,7 @@
       <c r="AB25" s="56"/>
       <c r="AC25" s="48"/>
       <c r="AF25" s="42" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG25" s="22" t="s">
         <v>46</v>
@@ -3543,13 +3566,13 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
@@ -3561,11 +3584,9 @@
         <v>50.0</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="J26" s="16">
-        <v>40.0</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J26" s="16"/>
       <c r="K26" s="16">
         <v>80.0</v>
       </c>
@@ -3574,18 +3595,32 @@
       <c r="N26" s="16"/>
       <c r="O26" s="16"/>
       <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
+      <c r="Q26" s="16">
+        <v>6.0</v>
+      </c>
+      <c r="R26" s="16">
+        <v>18.0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="T26" s="16">
+        <v>4.0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>60.0</v>
+      </c>
+      <c r="W26" s="16">
+        <v>10.0</v>
+      </c>
       <c r="X26" s="16"/>
       <c r="Y26" s="16"/>
       <c r="Z26" s="16"/>
       <c r="AA26" s="16" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AB26" s="28" t="s">
         <v>45</v>
@@ -3609,19 +3644,19 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F27" s="16"/>
       <c r="G27" s="16">
@@ -3631,7 +3666,7 @@
         <v>60.0</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J27" s="16">
         <v>48.0</v>
@@ -3649,20 +3684,22 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
+      <c r="V27" s="16">
+        <v>9.0</v>
+      </c>
       <c r="W27" s="16"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="16"/>
       <c r="Z27" s="16"/>
       <c r="AA27" s="16" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB27" s="25"/>
       <c r="AC27" s="20"/>
       <c r="AD27" s="20"/>
       <c r="AE27" s="20"/>
       <c r="AF27" s="42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AG27" s="22" t="s">
         <v>46</v>
@@ -3679,16 +3716,16 @@
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="16"/>
@@ -3699,7 +3736,7 @@
         <v>60.0</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J28" s="16">
         <v>40.0</v>
@@ -3745,19 +3782,19 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F29" s="16"/>
       <c r="G29" s="16">
@@ -3767,7 +3804,7 @@
         <v>100.0</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J29" s="16">
         <v>40.0</v>
@@ -3795,7 +3832,7 @@
       </c>
       <c r="AB29" s="25"/>
       <c r="AF29" s="42" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AG29" s="22" t="s">
         <v>46</v>
@@ -3812,19 +3849,19 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F30" s="16"/>
       <c r="G30" s="16">
@@ -3834,7 +3871,7 @@
         <v>60.0</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J30" s="16">
         <v>40.0</v>
@@ -3882,16 +3919,16 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="16"/>
@@ -3948,19 +3985,19 @@
     </row>
     <row r="32">
       <c r="A32" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F32" s="16"/>
       <c r="G32" s="16">
@@ -3970,7 +4007,7 @@
         <v>60.0</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J32" s="16">
         <v>50.0</v>
@@ -4019,16 +4056,16 @@
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E33" s="17"/>
       <c r="F33" s="16"/>
@@ -4088,19 +4125,19 @@
     </row>
     <row r="34">
       <c r="A34" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F34" s="16"/>
       <c r="G34" s="16">
@@ -4164,19 +4201,19 @@
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E35" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F35" s="16"/>
       <c r="G35" s="16">
@@ -4232,19 +4269,19 @@
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E36" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F36" s="16"/>
       <c r="G36" s="16">
@@ -4303,19 +4340,19 @@
     </row>
     <row r="37">
       <c r="A37" s="30" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="31">
@@ -4375,22 +4412,22 @@
     </row>
     <row r="38">
       <c r="A38" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D38" s="16" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E38" s="17" t="s">
         <v>106</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G38" s="16">
         <v>-64.0</v>
@@ -4399,7 +4436,7 @@
         <v>30.0</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J38" s="16">
         <v>30.0</v>
@@ -4447,19 +4484,19 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F39" s="17"/>
       <c r="G39" s="16">
@@ -4469,7 +4506,7 @@
         <v>30.0</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J39" s="16">
         <v>32.0</v>
@@ -4517,22 +4554,22 @@
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E40" s="17" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G40" s="16">
         <v>-64.0</v>
@@ -4541,7 +4578,7 @@
         <v>30.0</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J40" s="16">
         <v>34.0</v>
@@ -4589,19 +4626,19 @@
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B41" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E41" s="17" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F41" s="17"/>
       <c r="G41" s="16">
@@ -4611,7 +4648,7 @@
         <v>30.0</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J41" s="16">
         <v>32.0</v>
@@ -4661,19 +4698,19 @@
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E42" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F42" s="17"/>
       <c r="G42" s="16">
@@ -4701,13 +4738,15 @@
       <c r="S42" s="16"/>
       <c r="T42" s="16"/>
       <c r="U42" s="16"/>
-      <c r="V42" s="16"/>
+      <c r="V42" s="16">
+        <v>8.0</v>
+      </c>
       <c r="W42" s="16"/>
       <c r="X42" s="16"/>
       <c r="Y42" s="16"/>
       <c r="Z42" s="16"/>
       <c r="AA42" s="54" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
@@ -4733,19 +4772,19 @@
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E43" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F43" s="16"/>
       <c r="G43" s="16">
@@ -4755,7 +4794,7 @@
         <v>62.0</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J43" s="16">
         <v>26.0</v>
@@ -4773,13 +4812,15 @@
       <c r="S43" s="16"/>
       <c r="T43" s="16"/>
       <c r="U43" s="16"/>
-      <c r="V43" s="16"/>
+      <c r="V43" s="16">
+        <v>6.0</v>
+      </c>
       <c r="W43" s="16"/>
       <c r="X43" s="16"/>
       <c r="Y43" s="16"/>
       <c r="Z43" s="16"/>
       <c r="AA43" s="54" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB43" s="19" t="s">
         <v>45</v>
@@ -4805,16 +4846,16 @@
     </row>
     <row r="44">
       <c r="A44" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E44" s="17"/>
       <c r="F44" s="16"/>
@@ -4825,7 +4866,7 @@
         <v>0.0</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J44" s="16">
         <v>28.0</v>
@@ -4871,19 +4912,19 @@
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="F45" s="16"/>
       <c r="G45" s="16">
@@ -4893,7 +4934,7 @@
         <v>0.0</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J45" s="16">
         <v>30.0</v>
@@ -4939,19 +4980,19 @@
     </row>
     <row r="46">
       <c r="A46" s="15" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E46" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="F46" s="16"/>
       <c r="G46" s="16">
@@ -4961,7 +5002,7 @@
         <v>26.0</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J46" s="16">
         <v>28.0</v>
@@ -4979,13 +5020,15 @@
       <c r="S46" s="16"/>
       <c r="T46" s="16"/>
       <c r="U46" s="16"/>
-      <c r="V46" s="16"/>
+      <c r="V46" s="16">
+        <v>8.0</v>
+      </c>
       <c r="W46" s="16"/>
       <c r="X46" s="16"/>
       <c r="Y46" s="16"/>
       <c r="Z46" s="16"/>
       <c r="AA46" s="54" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB46" s="19" t="s">
         <v>45</v>
@@ -5006,19 +5049,19 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E47" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F47" s="16"/>
       <c r="G47" s="16">
@@ -5028,7 +5071,7 @@
         <v>26.0</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J47" s="16">
         <v>28.0</v>
@@ -5046,13 +5089,15 @@
       <c r="S47" s="16"/>
       <c r="T47" s="16"/>
       <c r="U47" s="16"/>
-      <c r="V47" s="16"/>
+      <c r="V47" s="16">
+        <v>7.0</v>
+      </c>
       <c r="W47" s="16"/>
       <c r="X47" s="16"/>
       <c r="Y47" s="16"/>
       <c r="Z47" s="16"/>
       <c r="AA47" s="54" t="s">
-        <v>44</v>
+        <v>132</v>
       </c>
       <c r="AB47" s="20"/>
       <c r="AD47" s="19" t="s">
@@ -5074,19 +5119,19 @@
     </row>
     <row r="48">
       <c r="A48" s="15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E48" s="17" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F48" s="16"/>
       <c r="G48" s="16">
@@ -5096,7 +5141,7 @@
         <v>10.0</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J48" s="16">
         <v>26.0</v>
@@ -5144,13 +5189,13 @@
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D49" s="16"/>
       <c r="E49" s="17"/>
@@ -5208,13 +5253,13 @@
     </row>
     <row r="50">
       <c r="A50" s="30" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="32"/>
@@ -5226,7 +5271,7 @@
         <v>-20.0</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J50" s="31">
         <v>24.0</v>
@@ -5285,7 +5330,7 @@
       <c r="H51" s="62"/>
       <c r="I51" s="62"/>
       <c r="J51" s="63" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
